--- a/data/trans_orig/P04C05_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22C7AA4-644E-48A0-BB87-668E23237552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC31079E-2D8C-4F0D-B70E-D1A25B8078F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82039843-CB68-45AE-AAF0-5765012A2D49}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A100F77-60A8-4314-96D5-E6188ECF50CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -155,7 +155,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>30,66%</t>
@@ -239,7 +239,7 @@
     <t>73,96%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>16,97%</t>
@@ -323,7 +323,7 @@
     <t>81,81%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>31,48%</t>
@@ -975,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA76FB-0F9E-4D98-97A7-634D9E26068F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FC2D85-DEE3-4770-97C5-8BF517D638D3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P04C05_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC31079E-2D8C-4F0D-B70E-D1A25B8078F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD57FE0-E932-43A4-A6F8-A28F4D8DDD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A100F77-60A8-4314-96D5-E6188ECF50CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8EDEA081-8179-4226-AC51-506CD57C771A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="176">
-  <si>
-    <t>Hogares con refrigeración por aire acondicionado mediante aparatos fijos en 2023 (Tasa respuesta: 99,87%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
+  <si>
+    <t>Población con refrigeración por aire acondicionado mediante aparatos fijos en la vivienda en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>42,82%</t>
   </si>
   <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
@@ -107,7 +107,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,17%</t>
+    <t>7,84%</t>
   </si>
   <si>
     <t>0%</t>
@@ -119,7 +119,7 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>2,84%</t>
   </si>
   <si>
     <t>Si, funciona correctamente</t>
@@ -128,28 +128,28 @@
     <t>55,88%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
   </si>
   <si>
     <t>58,37%</t>
   </si>
   <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>57,28%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,406 +161,400 @@
     <t>30,66%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>26,27%</t>
   </si>
   <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
     <t>21,84%</t>
   </si>
   <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>1,08%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>73,57%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -975,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FC2D85-DEE3-4770-97C5-8BF517D638D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205DA2C6-D653-4D17-AD9D-FB589F3713BF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1595,10 +1589,10 @@
         <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1607,13 @@
         <v>852593</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>1161</v>
@@ -1628,13 +1622,13 @@
         <v>820868</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>1927</v>
@@ -1643,13 +1637,13 @@
         <v>1673461</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1705,7 +1699,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1717,13 +1711,13 @@
         <v>229348</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H16" s="7">
         <v>391</v>
@@ -1798,13 +1792,13 @@
         <v>14780</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1813,13 @@
         <v>488050</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>645</v>
@@ -1834,13 +1828,13 @@
         <v>593496</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>1096</v>
@@ -1849,13 +1843,13 @@
         <v>1081546</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,7 +1891,7 @@
         <v>1720</v>
       </c>
       <c r="N19" s="7">
-        <v>1601596</v>
+        <v>1601597</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -2180,13 +2174,13 @@
         <v>43079</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -2195,13 +2189,13 @@
         <v>34711</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -2210,13 +2204,13 @@
         <v>77790</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2225,13 @@
         <v>2549576</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>3841</v>
@@ -2246,13 +2240,13 @@
         <v>2817515</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>6347</v>
@@ -2261,13 +2255,13 @@
         <v>5367092</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2317,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04C05_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD57FE0-E932-43A4-A6F8-A28F4D8DDD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D42C4823-7DB8-4453-8BF7-6609AA7E6743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8EDEA081-8179-4226-AC51-506CD57C771A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{18644AB4-2DEB-45D1-B81B-3BAAF48C5B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="148">
   <si>
     <t>Población con refrigeración por aire acondicionado mediante aparatos fijos en la vivienda en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
@@ -65,496 +65,418 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>Si, funciona correctamente</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>Si, funciona correctamente</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>73,09%</t>
   </si>
   <si>
-    <t>75,91%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -969,8 +891,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205DA2C6-D653-4D17-AD9D-FB589F3713BF}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A304062-6D73-4D10-80E8-267C768BFE6E}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1087,10 +1009,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="D4" s="7">
-        <v>43665</v>
+        <v>209940</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1102,10 +1024,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="I4" s="7">
-        <v>54429</v>
+        <v>206239</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1117,10 +1039,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>149</v>
+        <v>621</v>
       </c>
       <c r="N4" s="7">
-        <v>98094</v>
+        <v>416179</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1138,10 +1060,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1326</v>
+        <v>4092</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1153,85 +1075,85 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3946</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>1326</v>
+        <v>8038</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>68</v>
+        <v>490</v>
       </c>
       <c r="D6" s="7">
-        <v>56991</v>
+        <v>420390</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>143</v>
+        <v>846</v>
       </c>
       <c r="I6" s="7">
-        <v>76304</v>
+        <v>514022</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>211</v>
+        <v>1336</v>
       </c>
       <c r="N6" s="7">
-        <v>133295</v>
+        <v>934411</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1240,102 +1162,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>634422</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1240</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>724207</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1358628</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D8" s="7">
-        <v>168253</v>
+        <v>173678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="I8" s="7">
-        <v>162584</v>
+        <v>209899</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="N8" s="7">
-        <v>330837</v>
+        <v>383577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,100 +1266,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>3015</v>
+        <v>9497</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>4141</v>
+        <v>8980</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>7155</v>
+        <v>18476</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>422</v>
+        <v>766</v>
       </c>
       <c r="D10" s="7">
-        <v>377505</v>
+        <v>1009690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>703</v>
+        <v>1161</v>
       </c>
       <c r="I10" s="7">
-        <v>452097</v>
+        <v>737386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>1125</v>
+        <v>1927</v>
       </c>
       <c r="N10" s="7">
-        <v>829603</v>
+        <v>1747076</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,102 +1368,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>548773</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>997</v>
+        <v>1513</v>
       </c>
       <c r="I11" s="7">
-        <v>618822</v>
+        <v>956265</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1608</v>
+        <v>2477</v>
       </c>
       <c r="N11" s="7">
-        <v>1167596</v>
+        <v>2149129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>176410</v>
+        <v>225730</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="I12" s="7">
-        <v>226751</v>
+        <v>257911</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>521</v>
+        <v>602</v>
       </c>
       <c r="N12" s="7">
-        <v>403161</v>
+        <v>483641</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,97 +1475,97 @@
         <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>10245</v>
+        <v>10609</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>9900</v>
+        <v>3337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>20145</v>
+        <v>13946</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>766</v>
+        <v>451</v>
       </c>
       <c r="D14" s="7">
-        <v>852593</v>
+        <v>468177</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>1161</v>
+        <v>645</v>
       </c>
       <c r="I14" s="7">
-        <v>820868</v>
+        <v>670830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
-        <v>1927</v>
+        <v>1096</v>
       </c>
       <c r="N14" s="7">
-        <v>1673461</v>
+        <v>1139006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,102 +1574,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704516</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1513</v>
+        <v>1045</v>
       </c>
       <c r="I15" s="7">
-        <v>1057519</v>
+        <v>932078</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2477</v>
+        <v>1720</v>
       </c>
       <c r="N15" s="7">
-        <v>2096767</v>
+        <v>1636593</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D16" s="7">
-        <v>229348</v>
+        <v>170040</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="I16" s="7">
-        <v>275924</v>
+        <v>291615</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>602</v>
+        <v>527</v>
       </c>
       <c r="N16" s="7">
-        <v>505271</v>
+        <v>461655</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,100 +1678,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>11214</v>
+        <v>16189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>3565</v>
+        <v>15669</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N17" s="7">
-        <v>14780</v>
+        <v>31858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>451</v>
+        <v>799</v>
       </c>
       <c r="D18" s="7">
-        <v>488050</v>
+        <v>739628</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
-        <v>645</v>
+        <v>1189</v>
       </c>
       <c r="I18" s="7">
-        <v>593496</v>
+        <v>786918</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
-        <v>1096</v>
+        <v>1988</v>
       </c>
       <c r="N18" s="7">
-        <v>1081546</v>
+        <v>1526547</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,102 +1780,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D19" s="7">
-        <v>728612</v>
+        <v>925857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1045</v>
+        <v>1561</v>
       </c>
       <c r="I19" s="7">
-        <v>872985</v>
+        <v>1094202</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1720</v>
+        <v>2566</v>
       </c>
       <c r="N19" s="7">
-        <v>1601597</v>
+        <v>2020060</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>186</v>
+        <v>817</v>
       </c>
       <c r="D20" s="7">
-        <v>172663</v>
+        <v>779388</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
-        <v>341</v>
+        <v>1454</v>
       </c>
       <c r="I20" s="7">
-        <v>257798</v>
+        <v>965663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
-        <v>527</v>
+        <v>2271</v>
       </c>
       <c r="N20" s="7">
-        <v>430461</v>
+        <v>1745051</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,28 +1884,28 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D21" s="7">
-        <v>17279</v>
+        <v>40386</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I21" s="7">
-        <v>17105</v>
+        <v>31932</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>134</v>
@@ -1992,70 +1914,70 @@
         <v>135</v>
       </c>
       <c r="M21" s="7">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="N21" s="7">
-        <v>34384</v>
+        <v>72318</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>799</v>
+        <v>2506</v>
       </c>
       <c r="D22" s="7">
-        <v>774437</v>
+        <v>2637885</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3841</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2709156</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="7">
-        <v>1189</v>
-      </c>
-      <c r="I22" s="7">
-        <v>874750</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>6347</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5347041</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M22" s="7">
-        <v>1988</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1649187</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,268 +1986,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1005</v>
+        <v>3373</v>
       </c>
       <c r="D23" s="7">
-        <v>964379</v>
+        <v>3457659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1561</v>
+        <v>5359</v>
       </c>
       <c r="I23" s="7">
-        <v>1149653</v>
+        <v>3706751</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2566</v>
+        <v>8732</v>
       </c>
       <c r="N23" s="7">
-        <v>2114032</v>
+        <v>7164410</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>817</v>
-      </c>
-      <c r="D24" s="7">
-        <v>790339</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1454</v>
-      </c>
-      <c r="I24" s="7">
-        <v>977485</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M24" s="7">
-        <v>2271</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1767825</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>50</v>
-      </c>
-      <c r="D25" s="7">
-        <v>43079</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="7">
-        <v>64</v>
-      </c>
-      <c r="I25" s="7">
-        <v>34711</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M25" s="7">
-        <v>114</v>
-      </c>
-      <c r="N25" s="7">
-        <v>77790</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2506</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2549576</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3841</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2817515</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6347</v>
-      </c>
-      <c r="N26" s="7">
-        <v>5367092</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3382994</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5359</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3829711</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8732</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7212706</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>173</v>
+      <c r="A24" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
